--- a/data/topics_codebook.xlsx
+++ b/data/topics_codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/tommaso_feraco_unipd_it/Documents/BESSI/living_SEB_review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="616" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{126EA2CD-EE3D-4D06-9AD4-DCC0C26D559D}"/>
+  <xr:revisionPtr revIDLastSave="642" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3967BDDB-57C5-43F2-AFA3-C0A3797541D6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1170" windowWidth="28965" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="2760" windowWidth="14985" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
   <si>
     <t>academicachievement</t>
   </si>
@@ -261,6 +261,48 @@
   </si>
   <si>
     <t>Positive school outcomes</t>
+  </si>
+  <si>
+    <t>skilldevelopment</t>
+  </si>
+  <si>
+    <t>Skill development</t>
+  </si>
+  <si>
+    <t>virtual_reality</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>virtualrealityuse</t>
+  </si>
+  <si>
+    <t>Use of VR</t>
+  </si>
+  <si>
+    <t>beliefs</t>
+  </si>
+  <si>
+    <t>Skill beliefs</t>
+  </si>
+  <si>
+    <t>skillutilitybelief</t>
+  </si>
+  <si>
+    <t>Skill utility belief</t>
+  </si>
+  <si>
+    <t>skillmalleabilitybelief</t>
+  </si>
+  <si>
+    <t>Skill malleability beliefs</t>
+  </si>
+  <si>
+    <t>skillfortheworkplace</t>
+  </si>
+  <si>
+    <t>Skills for the workplace</t>
   </si>
 </sst>
 </file>
@@ -588,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471A8B26-530C-40CA-A676-99F1EAC2BADD}">
-  <dimension ref="A1:AP111"/>
+  <dimension ref="A1:AP116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,165 +726,153 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
       <c r="E11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
@@ -853,10 +883,10 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -868,10 +898,10 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -883,10 +913,10 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -898,112 +928,108 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>65</v>
-      </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1013,214 +1039,305 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" t="s">
         <v>17</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C36" t="s">
         <v>44</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D36" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" t="s">
         <v>18</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C38" t="s">
         <v>47</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D38" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>87</v>
+      </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" t="s">
+        <v>79</v>
+      </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-      <c r="AA62" s="1"/>
-      <c r="AB62" s="1"/>
-      <c r="AC62" s="1"/>
-      <c r="AD62" s="1"/>
-      <c r="AE62" s="1"/>
-      <c r="AF62" s="1"/>
-      <c r="AG62" s="1"/>
-      <c r="AH62" s="1"/>
-      <c r="AI62" s="1"/>
-      <c r="AJ62" s="1"/>
-      <c r="AK62" s="1"/>
-      <c r="AL62" s="1"/>
-      <c r="AM62" s="1"/>
-      <c r="AN62" s="1"/>
-      <c r="AO62" s="1"/>
-      <c r="AP62" s="1"/>
-    </row>
-    <row r="63" spans="5:42" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="5:42" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="5:42" x14ac:dyDescent="0.25">
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="5:42" x14ac:dyDescent="0.25">
       <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="5:42" x14ac:dyDescent="0.25">
       <c r="E67" s="1"/>
-    </row>
-    <row r="104" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="1"/>
+      <c r="AO67" s="1"/>
+      <c r="AP67" s="1"/>
+    </row>
+    <row r="68" spans="5:42" x14ac:dyDescent="0.25">
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="5:42" x14ac:dyDescent="0.25">
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="5:42" x14ac:dyDescent="0.25">
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="5:42" x14ac:dyDescent="0.25">
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="5:42" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="109" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:AP1" xr:uid="{471A8B26-530C-40CA-A676-99F1EAC2BADD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F175">
-    <sortCondition ref="A1:A175"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F180">
+    <sortCondition ref="A1:A180"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/topics_codebook.xlsx
+++ b/data/topics_codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/tommaso_feraco_unipd_it/Documents/BESSI/living_SEB_review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="642" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3967BDDB-57C5-43F2-AFA3-C0A3797541D6}"/>
+  <xr:revisionPtr revIDLastSave="647" documentId="11_AD4D5CB4E552A5DACE1C647E305F51585ADEDD82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16CF1222-91BE-4C1B-A559-B8CAEB1FCDA7}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="2760" windowWidth="14985" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="28785" yWindow="2730" windowWidth="11670" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
   <si>
     <t>academicachievement</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>Skills for the workplace</t>
+  </si>
+  <si>
+    <t>autonomysupport</t>
+  </si>
+  <si>
+    <t>Autonomy support</t>
   </si>
 </sst>
 </file>
@@ -630,22 +636,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471A8B26-530C-40CA-A676-99F1EAC2BADD}">
-  <dimension ref="A1:AP116"/>
+  <dimension ref="A1:AP117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="35.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -665,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -680,7 +686,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -695,7 +701,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -710,7 +716,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
@@ -725,7 +731,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -740,10 +746,10 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>80</v>
       </c>
@@ -758,7 +764,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>80</v>
       </c>
@@ -773,10 +779,10 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
@@ -827,7 +833,7 @@
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
@@ -842,7 +848,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -857,7 +863,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>49</v>
       </c>
@@ -872,10 +878,10 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -890,7 +896,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -905,7 +911,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -920,7 +926,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -935,7 +941,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
@@ -950,7 +956,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
@@ -965,7 +971,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -980,7 +986,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
@@ -995,10 +1001,10 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1013,7 +1019,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -1028,10 +1034,10 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -1047,7 +1053,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>52</v>
       </c>
@@ -1063,7 +1069,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>52</v>
       </c>
@@ -1079,7 +1085,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
@@ -1095,7 +1101,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>52</v>
       </c>
@@ -1111,64 +1117,65 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" t="s">
-        <v>58</v>
-      </c>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>17</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>44</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" t="s">
-        <v>46</v>
-      </c>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>54</v>
       </c>
@@ -1176,168 +1183,183 @@
         <v>18</v>
       </c>
       <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
         <v>86</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>77</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>78</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
-      <c r="AD67" s="1"/>
-      <c r="AE67" s="1"/>
-      <c r="AF67" s="1"/>
-      <c r="AG67" s="1"/>
-      <c r="AH67" s="1"/>
-      <c r="AI67" s="1"/>
-      <c r="AJ67" s="1"/>
-      <c r="AK67" s="1"/>
-      <c r="AL67" s="1"/>
-      <c r="AM67" s="1"/>
-      <c r="AN67" s="1"/>
-      <c r="AO67" s="1"/>
-      <c r="AP67" s="1"/>
-    </row>
-    <row r="68" spans="5:42" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="5:42" x14ac:dyDescent="0.25">
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="1"/>
+      <c r="AO68" s="1"/>
+      <c r="AP68" s="1"/>
+    </row>
+    <row r="69" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:42" x14ac:dyDescent="0.35">
       <c r="E72" s="1"/>
-    </row>
-    <row r="109" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="5:42" x14ac:dyDescent="0.35">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="110" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <autoFilter ref="A1:AP1" xr:uid="{471A8B26-530C-40CA-A676-99F1EAC2BADD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F180">
-    <sortCondition ref="A1:A180"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F181">
+    <sortCondition ref="A1:A181"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
